--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,81 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>nior</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>16:34:23</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16:34:26</t>
+    <t>12321321</t>
+  </si>
+  <si>
+    <t>17:03:56</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>17:06:24</t>
+  </si>
+  <si>
+    <t>1112333</t>
+  </si>
+  <si>
+    <t>17:07:24</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>16:36:19</t>
-  </si>
-  <si>
-    <t>dsadsasdadadasdsaddasdsadadsadadsa</t>
-  </si>
-  <si>
-    <t>16:36:24</t>
-  </si>
-  <si>
-    <t>dsadsadsa</t>
-  </si>
-  <si>
-    <t>16:36:26</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>16:37:27</t>
-  </si>
-  <si>
-    <t>12443</t>
-  </si>
-  <si>
-    <t>16:38:14</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>16:38:32</t>
-  </si>
-  <si>
-    <t>16:38:33</t>
-  </si>
-  <si>
-    <t>3213213</t>
-  </si>
-  <si>
-    <t>16:38:34</t>
-  </si>
-  <si>
-    <t>321321321</t>
-  </si>
-  <si>
-    <t>16:38:35</t>
+    <t>17:10:24</t>
   </si>
 </sst>
 </file>
@@ -462,139 +414,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A2:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,33 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>nior</t>
-  </si>
-  <si>
-    <t>12321321</t>
-  </si>
-  <si>
-    <t>17:03:56</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>17:06:24</t>
-  </si>
-  <si>
-    <t>1112333</t>
-  </si>
-  <si>
-    <t>17:07:24</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>17:10:24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>eiei</t>
+  </si>
+  <si>
+    <t>d kabbb</t>
+  </si>
+  <si>
+    <t>01:15:30</t>
+  </si>
+  <si>
+    <t>Nior</t>
+  </si>
+  <si>
+    <t>d kuy raii</t>
+  </si>
+  <si>
+    <t>01:15:45</t>
+  </si>
+  <si>
+    <t>01:16:41</t>
+  </si>
+  <si>
+    <t>kuy rai kakkk</t>
+  </si>
+  <si>
+    <t>01:16:50</t>
+  </si>
+  <si>
+    <t>d kuyyy</t>
+  </si>
+  <si>
+    <t>01:20:16</t>
+  </si>
+  <si>
+    <t>kuy raiii</t>
+  </si>
+  <si>
+    <t>01:20:25</t>
+  </si>
+  <si>
+    <t>01:22:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kuy raiii</t>
+  </si>
+  <si>
+    <t>01:22:29</t>
   </si>
 </sst>
 </file>
@@ -414,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,21 +451,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -459,6 +480,50 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
